--- a/Measurement Analysis/K15T2-Team22-Team Assignment10/Viking Risk Assessment.xlsx
+++ b/Measurement Analysis/K15T2-Team22-Team Assignment10/Viking Risk Assessment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="367"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="367" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Risk List" sheetId="13" r:id="rId1"/>
@@ -425,7 +425,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="131">
   <si>
     <t>Description</t>
   </si>
@@ -826,8 +826,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mmm\ dd&quot;, &quot;yy"/>
-    <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="167" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="166" formatCode="0.00;[Red]0.00"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -1155,7 +1155,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1288,7 +1288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1309,7 +1309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1330,6 +1330,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1342,6 +1345,12 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1350,15 +1359,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1801,8 +1801,8 @@
   </sheetPr>
   <dimension ref="A3:W177"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C7" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9:Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1821,8 +1821,8 @@
     <col min="15" max="15" width="9.5703125" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="16.85546875" customWidth="1"/>
-    <col min="18" max="18" width="37.7109375" customWidth="1"/>
-    <col min="19" max="19" width="32.28515625" customWidth="1"/>
+    <col min="18" max="18" width="37.7109375" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="32.28515625" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="12.42578125" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.140625" customWidth="1"/>
@@ -1863,16 +1863,16 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="I4" s="80" t="s">
+      <c r="I4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
       <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
@@ -1890,14 +1890,14 @@
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
       <c r="Q5"/>
       <c r="R5"/>
       <c r="S5"/>
@@ -1907,89 +1907,89 @@
       <c r="W5"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" thickBot="1">
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
     </row>
     <row r="7" spans="1:23" s="9" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="73" t="s">
+      <c r="E7" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="73" t="s">
+      <c r="G7" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="73" t="s">
+      <c r="H7" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="74" t="s">
+      <c r="I7" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="75" t="s">
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="75" t="s">
+      <c r="N7" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="75" t="s">
+      <c r="O7" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="76" t="s">
+      <c r="P7" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="Q7" s="73" t="s">
+      <c r="Q7" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="R7" s="73" t="s">
+      <c r="R7" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="S7" s="73" t="s">
+      <c r="S7" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="T7" s="73" t="s">
+      <c r="T7" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="U7" s="73" t="s">
+      <c r="U7" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="V7" s="73" t="s">
+      <c r="V7" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="W7" s="73" t="s">
+      <c r="W7" s="74" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:23" s="9" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A8" s="73"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
       <c r="I8" s="8" t="s">
         <v>32</v>
       </c>
@@ -2002,17 +2002,17 @@
       <c r="L8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="75"/>
-      <c r="S8" s="75"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="73"/>
-      <c r="W8" s="73"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="76"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="74"/>
+      <c r="W8" s="74"/>
     </row>
     <row r="9" spans="1:23" s="4" customFormat="1">
       <c r="A9" s="54" t="s">
@@ -2048,7 +2048,7 @@
         <f>IF(MAX(VLOOKUP(I9,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J9,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K9,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L9,'Risk Glossary'!$C$41:$D$46,2,0))&gt;0,VLOOKUP(M9,Probability,MATCH(MAX(VLOOKUP(I9,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J9,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K9,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L9,'Risk Glossary'!$C$41:$D$46,2,0)),'Risk Glossary'!$D$50:$H$50,FALSE)+1),"")</f>
         <v>High</v>
       </c>
-      <c r="O9" s="82">
+      <c r="O9" s="73">
         <f>MAX(VLOOKUP(I9,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J9,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K9,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L9,'Risk Glossary'!$C$41:$D$46,2,0))*M9</f>
         <v>4.5</v>
       </c>
@@ -2101,7 +2101,7 @@
         <f>IF(MAX(VLOOKUP(I10,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J10,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K10,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L10,'Risk Glossary'!$C$41:$D$46,2,0))&gt;0,VLOOKUP(M10,Probability,MATCH(MAX(VLOOKUP(I10,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J10,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K10,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L10,'Risk Glossary'!$C$41:$D$46,2,0)),'Risk Glossary'!$D$50:$H$50,FALSE)+1),"")</f>
         <v>High</v>
       </c>
-      <c r="O10" s="82">
+      <c r="O10" s="73">
         <f>MAX(VLOOKUP(I10,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J10,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K10,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L10,'Risk Glossary'!$C$41:$D$46,2,0))*M10</f>
         <v>4.5</v>
       </c>
@@ -2154,7 +2154,7 @@
         <f>IF(MAX(VLOOKUP(I11,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J11,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K11,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L11,'Risk Glossary'!$C$41:$D$46,2,0))&gt;0,VLOOKUP(M11,Probability,MATCH(MAX(VLOOKUP(I11,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J11,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K11,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L11,'Risk Glossary'!$C$41:$D$46,2,0)),'Risk Glossary'!$D$50:$H$50,FALSE)+1),"")</f>
         <v>High</v>
       </c>
-      <c r="O11" s="82">
+      <c r="O11" s="73">
         <f>MAX(VLOOKUP(I11,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J11,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K11,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L11,'Risk Glossary'!$C$41:$D$46,2,0))*M11</f>
         <v>2.5</v>
       </c>
@@ -2207,7 +2207,7 @@
         <f>IF(MAX(VLOOKUP(I12,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J12,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K12,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L12,'Risk Glossary'!$C$41:$D$46,2,0))&gt;0,VLOOKUP(M12,Probability,MATCH(MAX(VLOOKUP(I12,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J12,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K12,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L12,'Risk Glossary'!$C$41:$D$46,2,0)),'Risk Glossary'!$D$50:$H$50,FALSE)+1),"")</f>
         <v>High</v>
       </c>
-      <c r="O12" s="82">
+      <c r="O12" s="73">
         <f>MAX(VLOOKUP(I12,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J12,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K12,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L12,'Risk Glossary'!$C$41:$D$46,2,0))*M12</f>
         <v>2.5</v>
       </c>
@@ -2260,7 +2260,7 @@
         <f>IF(MAX(VLOOKUP(I13,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J13,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K13,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L13,'Risk Glossary'!$C$41:$D$46,2,0))&gt;0,VLOOKUP(M13,Probability,MATCH(MAX(VLOOKUP(I13,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J13,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K13,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L13,'Risk Glossary'!$C$41:$D$46,2,0)),'Risk Glossary'!$D$50:$H$50,FALSE)+1),"")</f>
         <v>High</v>
       </c>
-      <c r="O13" s="82">
+      <c r="O13" s="73">
         <f>MAX(VLOOKUP(I13,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J13,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K13,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L13,'Risk Glossary'!$C$41:$D$46,2,0))*M13</f>
         <v>3.5</v>
       </c>
@@ -2313,7 +2313,7 @@
         <f>IF(MAX(VLOOKUP(I14,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J14,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K14,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L14,'Risk Glossary'!$C$41:$D$46,2,0))&gt;0,VLOOKUP(M14,Probability,MATCH(MAX(VLOOKUP(I14,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J14,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K14,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L14,'Risk Glossary'!$C$41:$D$46,2,0)),'Risk Glossary'!$D$50:$H$50,FALSE)+1),"")</f>
         <v>Medium</v>
       </c>
-      <c r="O14" s="82">
+      <c r="O14" s="73">
         <f>MAX(VLOOKUP(I14,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J14,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K14,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L14,'Risk Glossary'!$C$41:$D$46,2,0))*M14</f>
         <v>1.2000000000000002</v>
       </c>
@@ -2366,7 +2366,7 @@
         <f>IF(MAX(VLOOKUP(I15,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J15,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K15,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L15,'Risk Glossary'!$C$41:$D$46,2,0))&gt;0,VLOOKUP(M15,Probability,MATCH(MAX(VLOOKUP(I15,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J15,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K15,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L15,'Risk Glossary'!$C$41:$D$46,2,0)),'Risk Glossary'!$D$50:$H$50,FALSE)+1),"")</f>
         <v>Medium</v>
       </c>
-      <c r="O15" s="82">
+      <c r="O15" s="73">
         <f>MAX(VLOOKUP(I15,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J15,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K15,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L15,'Risk Glossary'!$C$41:$D$46,2,0))*M15</f>
         <v>1.5000000000000002</v>
       </c>
@@ -2419,7 +2419,7 @@
         <f>IF(MAX(VLOOKUP(I16,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J16,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K16,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L16,'Risk Glossary'!$C$41:$D$46,2,0))&gt;0,VLOOKUP(M16,Probability,MATCH(MAX(VLOOKUP(I16,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J16,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K16,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L16,'Risk Glossary'!$C$41:$D$46,2,0)),'Risk Glossary'!$D$50:$H$50,FALSE)+1),"")</f>
         <v>High</v>
       </c>
-      <c r="O16" s="82">
+      <c r="O16" s="73">
         <f>MAX(VLOOKUP(I16,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J16,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K16,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L16,'Risk Glossary'!$C$41:$D$46,2,0))*M16</f>
         <v>2.5</v>
       </c>
@@ -2472,7 +2472,7 @@
         <f>IF(MAX(VLOOKUP(I17,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J17,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K17,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L17,'Risk Glossary'!$C$41:$D$46,2,0))&gt;0,VLOOKUP(M17,Probability,MATCH(MAX(VLOOKUP(I17,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J17,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K17,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L17,'Risk Glossary'!$C$41:$D$46,2,0)),'Risk Glossary'!$D$50:$H$50,FALSE)+1),"")</f>
         <v>Medium</v>
       </c>
-      <c r="O17" s="82">
+      <c r="O17" s="73">
         <f>MAX(VLOOKUP(I17,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J17,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K17,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L17,'Risk Glossary'!$C$41:$D$46,2,0))*M17</f>
         <v>1.2000000000000002</v>
       </c>
@@ -2525,7 +2525,7 @@
         <f>IF(MAX(VLOOKUP(I18,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J18,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K18,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L18,'Risk Glossary'!$C$41:$D$46,2,0))&gt;0,VLOOKUP(M18,Probability,MATCH(MAX(VLOOKUP(I18,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J18,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K18,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L18,'Risk Glossary'!$C$41:$D$46,2,0)),'Risk Glossary'!$D$50:$H$50,FALSE)+1),"")</f>
         <v>Low</v>
       </c>
-      <c r="O18" s="82">
+      <c r="O18" s="73">
         <f>MAX(VLOOKUP(I18,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J18,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K18,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L18,'Risk Glossary'!$C$41:$D$46,2,0))*M18</f>
         <v>0.30000000000000004</v>
       </c>
@@ -2578,7 +2578,7 @@
         <f>IF(MAX(VLOOKUP(I19,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J19,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K19,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L19,'Risk Glossary'!$C$41:$D$46,2,0))&gt;0,VLOOKUP(M19,Probability,MATCH(MAX(VLOOKUP(I19,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J19,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K19,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L19,'Risk Glossary'!$C$41:$D$46,2,0)),'Risk Glossary'!$D$50:$H$50,FALSE)+1),"")</f>
         <v>High</v>
       </c>
-      <c r="O19" s="82">
+      <c r="O19" s="73">
         <f>MAX(VLOOKUP(I19,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J19,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K19,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L19,'Risk Glossary'!$C$41:$D$46,2,0))*M19</f>
         <v>2.5</v>
       </c>
@@ -2631,7 +2631,7 @@
         <f>IF(MAX(VLOOKUP(I20,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J20,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K20,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L20,'Risk Glossary'!$C$41:$D$46,2,0))&gt;0,VLOOKUP(M20,Probability,MATCH(MAX(VLOOKUP(I20,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J20,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K20,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L20,'Risk Glossary'!$C$41:$D$46,2,0)),'Risk Glossary'!$D$50:$H$50,FALSE)+1),"")</f>
         <v>Medium</v>
       </c>
-      <c r="O20" s="82">
+      <c r="O20" s="73">
         <f>MAX(VLOOKUP(I20,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J20,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K20,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L20,'Risk Glossary'!$C$41:$D$46,2,0))*M20</f>
         <v>1.5000000000000002</v>
       </c>
@@ -2684,7 +2684,7 @@
         <f>IF(MAX(VLOOKUP(I21,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J21,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K21,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L21,'Risk Glossary'!$C$41:$D$46,2,0))&gt;0,VLOOKUP(M21,Probability,MATCH(MAX(VLOOKUP(I21,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J21,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K21,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L21,'Risk Glossary'!$C$41:$D$46,2,0)),'Risk Glossary'!$D$50:$H$50,FALSE)+1),"")</f>
         <v>High</v>
       </c>
-      <c r="O21" s="82">
+      <c r="O21" s="73">
         <f>MAX(VLOOKUP(I21,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J21,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K21,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L21,'Risk Glossary'!$C$41:$D$46,2,0))*M21</f>
         <v>3.5</v>
       </c>
@@ -2737,7 +2737,7 @@
         <f>IF(MAX(VLOOKUP(I22,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J22,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K22,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L22,'Risk Glossary'!$C$41:$D$46,2,0))&gt;0,VLOOKUP(M22,Probability,MATCH(MAX(VLOOKUP(I22,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J22,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K22,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L22,'Risk Glossary'!$C$41:$D$46,2,0)),'Risk Glossary'!$D$50:$H$50,FALSE)+1),"")</f>
         <v>High</v>
       </c>
-      <c r="O22" s="82">
+      <c r="O22" s="73">
         <f>MAX(VLOOKUP(I22,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J22,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K22,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L22,'Risk Glossary'!$C$41:$D$46,2,0))*M22</f>
         <v>2.5</v>
       </c>
@@ -2790,7 +2790,7 @@
         <f>IF(MAX(VLOOKUP(I23,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J23,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K23,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L23,'Risk Glossary'!$C$41:$D$46,2,0))&gt;0,VLOOKUP(M23,Probability,MATCH(MAX(VLOOKUP(I23,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J23,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K23,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L23,'Risk Glossary'!$C$41:$D$46,2,0)),'Risk Glossary'!$D$50:$H$50,FALSE)+1),"")</f>
         <v>Medium</v>
       </c>
-      <c r="O23" s="82">
+      <c r="O23" s="73">
         <f>MAX(VLOOKUP(I23,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J23,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K23,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L23,'Risk Glossary'!$C$41:$D$46,2,0))*M23</f>
         <v>0.90000000000000013</v>
       </c>
@@ -2843,7 +2843,7 @@
         <f>IF(MAX(VLOOKUP(I24,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J24,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K24,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L24,'Risk Glossary'!$C$41:$D$46,2,0))&gt;0,VLOOKUP(M24,Probability,MATCH(MAX(VLOOKUP(I24,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J24,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K24,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L24,'Risk Glossary'!$C$41:$D$46,2,0)),'Risk Glossary'!$D$50:$H$50,FALSE)+1),"")</f>
         <v>Medium</v>
       </c>
-      <c r="O24" s="82">
+      <c r="O24" s="73">
         <f>MAX(VLOOKUP(I24,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J24,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K24,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L24,'Risk Glossary'!$C$41:$D$46,2,0))*M24</f>
         <v>1.2000000000000002</v>
       </c>
@@ -2896,7 +2896,7 @@
         <f>IF(MAX(VLOOKUP(I25,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J25,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K25,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L25,'Risk Glossary'!$C$41:$D$46,2,0))&gt;0,VLOOKUP(M25,Probability,MATCH(MAX(VLOOKUP(I25,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J25,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K25,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L25,'Risk Glossary'!$C$41:$D$46,2,0)),'Risk Glossary'!$D$50:$H$50,FALSE)+1),"")</f>
         <v>Medium</v>
       </c>
-      <c r="O25" s="82">
+      <c r="O25" s="73">
         <f>MAX(VLOOKUP(I25,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J25,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K25,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L25,'Risk Glossary'!$C$41:$D$46,2,0))*M25</f>
         <v>1.2000000000000002</v>
       </c>
@@ -3696,6 +3696,15 @@
     <sortCondition descending="1" ref="O9"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I4:P6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="W7:W8"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="M7:M8"/>
@@ -3708,15 +3717,6 @@
     <mergeCell ref="U7:U8"/>
     <mergeCell ref="V7:V8"/>
     <mergeCell ref="P7:P8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I4:P6"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="Q9:Q49">
@@ -3777,11 +3777,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="23.25">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
     </row>
     <row r="3" spans="2:4" ht="20.25">
       <c r="C3" s="15"/>
@@ -4166,19 +4166,19 @@
       </c>
     </row>
     <row r="49" spans="3:8" ht="12.95" customHeight="1">
-      <c r="C49" s="78" t="s">
+      <c r="C49" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="79" t="s">
+      <c r="D49" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="79"/>
-      <c r="F49" s="79"/>
-      <c r="G49" s="79"/>
-      <c r="H49" s="79"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="82"/>
     </row>
     <row r="50" spans="3:8">
-      <c r="C50" s="78"/>
+      <c r="C50" s="81"/>
       <c r="D50" s="46">
         <v>1</v>
       </c>
@@ -4316,8 +4316,8 @@
   </sheetPr>
   <dimension ref="A3:W170"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -4336,8 +4336,8 @@
     <col min="15" max="15" width="9.5703125" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="16.85546875" customWidth="1"/>
-    <col min="18" max="18" width="37.7109375" customWidth="1"/>
-    <col min="19" max="19" width="32.28515625" customWidth="1"/>
+    <col min="18" max="18" width="37.7109375" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="32.28515625" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="12.42578125" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.140625" customWidth="1"/>
@@ -4378,16 +4378,16 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="I4" s="80" t="s">
+      <c r="I4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
       <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
@@ -4405,14 +4405,14 @@
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
       <c r="Q5"/>
       <c r="R5"/>
       <c r="S5"/>
@@ -4422,89 +4422,89 @@
       <c r="W5"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" thickBot="1">
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
     </row>
     <row r="7" spans="1:23" s="9" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="73" t="s">
+      <c r="E7" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="73" t="s">
+      <c r="G7" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="73" t="s">
+      <c r="H7" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="74" t="s">
+      <c r="I7" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="75" t="s">
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="75" t="s">
+      <c r="N7" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="75" t="s">
+      <c r="O7" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="76" t="s">
+      <c r="P7" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="Q7" s="73" t="s">
+      <c r="Q7" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="R7" s="73" t="s">
+      <c r="R7" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="S7" s="73" t="s">
+      <c r="S7" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="T7" s="73" t="s">
+      <c r="T7" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="U7" s="73" t="s">
+      <c r="U7" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="V7" s="73" t="s">
+      <c r="V7" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="W7" s="73" t="s">
+      <c r="W7" s="74" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:23" s="9" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A8" s="73"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
       <c r="I8" s="71" t="s">
         <v>32</v>
       </c>
@@ -4517,17 +4517,17 @@
       <c r="L8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="75"/>
-      <c r="S8" s="75"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="73"/>
-      <c r="W8" s="73"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="76"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="74"/>
+      <c r="W8" s="74"/>
     </row>
     <row r="9" spans="1:23" s="4" customFormat="1">
       <c r="A9" s="54" t="s">
@@ -4563,12 +4563,14 @@
         <f>IF(MAX(VLOOKUP(I9,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J9,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K9,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L9,'Risk Glossary'!$C$41:$D$46,2,0))&gt;0,VLOOKUP(M9,Probability,MATCH(MAX(VLOOKUP(I9,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J9,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K9,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L9,'Risk Glossary'!$C$41:$D$46,2,0)),'Risk Glossary'!$D$50:$H$50,FALSE)+1),"")</f>
         <v>High</v>
       </c>
-      <c r="O9" s="82">
+      <c r="O9" s="73">
         <f>MAX(VLOOKUP(I9,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J9,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K9,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L9,'Risk Glossary'!$C$41:$D$46,2,0))*M9</f>
         <v>4.5</v>
       </c>
       <c r="P9" s="56"/>
-      <c r="Q9" s="2"/>
+      <c r="Q9" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="R9" s="54"/>
       <c r="S9" s="2"/>
       <c r="T9" s="7"/>
@@ -4614,12 +4616,14 @@
         <f>IF(MAX(VLOOKUP(I10,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J10,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K10,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L10,'Risk Glossary'!$C$41:$D$46,2,0))&gt;0,VLOOKUP(M10,Probability,MATCH(MAX(VLOOKUP(I10,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J10,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K10,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L10,'Risk Glossary'!$C$41:$D$46,2,0)),'Risk Glossary'!$D$50:$H$50,FALSE)+1),"")</f>
         <v>High</v>
       </c>
-      <c r="O10" s="82">
+      <c r="O10" s="73">
         <f>MAX(VLOOKUP(I10,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J10,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K10,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L10,'Risk Glossary'!$C$41:$D$46,2,0))*M10</f>
         <v>4.5</v>
       </c>
       <c r="P10" s="56"/>
-      <c r="Q10" s="2"/>
+      <c r="Q10" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="R10" s="72"/>
       <c r="S10" s="2"/>
       <c r="T10" s="7"/>
@@ -4665,12 +4669,14 @@
         <f>IF(MAX(VLOOKUP(I11,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J11,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K11,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L11,'Risk Glossary'!$C$41:$D$46,2,0))&gt;0,VLOOKUP(M11,Probability,MATCH(MAX(VLOOKUP(I11,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J11,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K11,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L11,'Risk Glossary'!$C$41:$D$46,2,0)),'Risk Glossary'!$D$50:$H$50,FALSE)+1),"")</f>
         <v>High</v>
       </c>
-      <c r="O11" s="82">
+      <c r="O11" s="73">
         <f>MAX(VLOOKUP(I11,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J11,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K11,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L11,'Risk Glossary'!$C$41:$D$46,2,0))*M11</f>
         <v>2.5</v>
       </c>
       <c r="P11" s="56"/>
-      <c r="Q11" s="2"/>
+      <c r="Q11" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="R11" s="55"/>
       <c r="S11" s="2"/>
       <c r="T11" s="7"/>
@@ -4716,12 +4722,14 @@
         <f>IF(MAX(VLOOKUP(I12,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J12,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K12,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L12,'Risk Glossary'!$C$41:$D$46,2,0))&gt;0,VLOOKUP(M12,Probability,MATCH(MAX(VLOOKUP(I12,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J12,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K12,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L12,'Risk Glossary'!$C$41:$D$46,2,0)),'Risk Glossary'!$D$50:$H$50,FALSE)+1),"")</f>
         <v>High</v>
       </c>
-      <c r="O12" s="82">
+      <c r="O12" s="73">
         <f>MAX(VLOOKUP(I12,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J12,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K12,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L12,'Risk Glossary'!$C$41:$D$46,2,0))*M12</f>
         <v>2.5</v>
       </c>
       <c r="P12" s="56"/>
-      <c r="Q12" s="2"/>
+      <c r="Q12" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="R12" s="72"/>
       <c r="S12" s="2"/>
       <c r="T12" s="7"/>
@@ -4767,12 +4775,14 @@
         <f>IF(MAX(VLOOKUP(I13,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J13,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K13,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L13,'Risk Glossary'!$C$41:$D$46,2,0))&gt;0,VLOOKUP(M13,Probability,MATCH(MAX(VLOOKUP(I13,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J13,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K13,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L13,'Risk Glossary'!$C$41:$D$46,2,0)),'Risk Glossary'!$D$50:$H$50,FALSE)+1),"")</f>
         <v>High</v>
       </c>
-      <c r="O13" s="82">
+      <c r="O13" s="73">
         <f>MAX(VLOOKUP(I13,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J13,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K13,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L13,'Risk Glossary'!$C$41:$D$46,2,0))*M13</f>
         <v>3.5</v>
       </c>
       <c r="P13" s="56"/>
-      <c r="Q13" s="2"/>
+      <c r="Q13" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="R13" s="54"/>
       <c r="S13" s="2"/>
       <c r="T13" s="5"/>
@@ -4818,12 +4828,14 @@
         <f>IF(MAX(VLOOKUP(I14,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J14,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K14,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L14,'Risk Glossary'!$C$41:$D$46,2,0))&gt;0,VLOOKUP(M14,Probability,MATCH(MAX(VLOOKUP(I14,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J14,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K14,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L14,'Risk Glossary'!$C$41:$D$46,2,0)),'Risk Glossary'!$D$50:$H$50,FALSE)+1),"")</f>
         <v>High</v>
       </c>
-      <c r="O14" s="82">
+      <c r="O14" s="73">
         <f>MAX(VLOOKUP(I14,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J14,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K14,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L14,'Risk Glossary'!$C$41:$D$46,2,0))*M14</f>
         <v>2.5</v>
       </c>
       <c r="P14" s="56"/>
-      <c r="Q14" s="2"/>
+      <c r="Q14" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="R14" s="54"/>
       <c r="S14" s="2"/>
       <c r="T14" s="5"/>
@@ -4869,12 +4881,14 @@
         <f>IF(MAX(VLOOKUP(I15,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J15,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K15,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L15,'Risk Glossary'!$C$41:$D$46,2,0))&gt;0,VLOOKUP(M15,Probability,MATCH(MAX(VLOOKUP(I15,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J15,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K15,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L15,'Risk Glossary'!$C$41:$D$46,2,0)),'Risk Glossary'!$D$50:$H$50,FALSE)+1),"")</f>
         <v>High</v>
       </c>
-      <c r="O15" s="82">
+      <c r="O15" s="73">
         <f>MAX(VLOOKUP(I15,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J15,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K15,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L15,'Risk Glossary'!$C$41:$D$46,2,0))*M15</f>
         <v>2.5</v>
       </c>
       <c r="P15" s="56"/>
-      <c r="Q15" s="2"/>
+      <c r="Q15" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="5"/>
@@ -4918,12 +4932,14 @@
         <f>IF(MAX(VLOOKUP(I16,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J16,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K16,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L16,'Risk Glossary'!$C$41:$D$46,2,0))&gt;0,VLOOKUP(M16,Probability,MATCH(MAX(VLOOKUP(I16,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J16,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K16,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L16,'Risk Glossary'!$C$41:$D$46,2,0)),'Risk Glossary'!$D$50:$H$50,FALSE)+1),"")</f>
         <v>Medium</v>
       </c>
-      <c r="O16" s="82">
+      <c r="O16" s="73">
         <f>MAX(VLOOKUP(I16,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J16,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K16,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L16,'Risk Glossary'!$C$41:$D$46,2,0))*M16</f>
         <v>1.5000000000000002</v>
       </c>
       <c r="P16" s="56"/>
-      <c r="Q16" s="2"/>
+      <c r="Q16" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="5"/>
@@ -4967,12 +4983,14 @@
         <f>IF(MAX(VLOOKUP(I17,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J17,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K17,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L17,'Risk Glossary'!$C$41:$D$46,2,0))&gt;0,VLOOKUP(M17,Probability,MATCH(MAX(VLOOKUP(I17,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J17,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K17,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L17,'Risk Glossary'!$C$41:$D$46,2,0)),'Risk Glossary'!$D$50:$H$50,FALSE)+1),"")</f>
         <v>High</v>
       </c>
-      <c r="O17" s="82">
+      <c r="O17" s="73">
         <f>MAX(VLOOKUP(I17,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J17,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K17,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L17,'Risk Glossary'!$C$41:$D$46,2,0))*M17</f>
         <v>3.5</v>
       </c>
       <c r="P17" s="56"/>
-      <c r="Q17" s="2"/>
+      <c r="Q17" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="5"/>
@@ -5016,12 +5034,14 @@
         <f>IF(MAX(VLOOKUP(I18,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J18,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K18,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L18,'Risk Glossary'!$C$41:$D$46,2,0))&gt;0,VLOOKUP(M18,Probability,MATCH(MAX(VLOOKUP(I18,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J18,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K18,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L18,'Risk Glossary'!$C$41:$D$46,2,0)),'Risk Glossary'!$D$50:$H$50,FALSE)+1),"")</f>
         <v>High</v>
       </c>
-      <c r="O18" s="82">
+      <c r="O18" s="73">
         <f>MAX(VLOOKUP(I18,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(J18,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(K18,'Risk Glossary'!$C$41:$D$46,2,0), VLOOKUP(L18,'Risk Glossary'!$C$41:$D$46,2,0))*M18</f>
         <v>2.5</v>
       </c>
       <c r="P18" s="56"/>
-      <c r="Q18" s="2"/>
+      <c r="Q18" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="5"/>
@@ -5809,16 +5829,6 @@
     <row r="170" s="1" customFormat="1"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
     <mergeCell ref="R7:R8"/>
     <mergeCell ref="I4:P6"/>
     <mergeCell ref="A7:A8"/>
@@ -5830,6 +5840,16 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="M9:M42">

--- a/Measurement Analysis/K15T2-Team22-Team Assignment10/Viking Risk Assessment.xlsx
+++ b/Measurement Analysis/K15T2-Team22-Team Assignment10/Viking Risk Assessment.xlsx
@@ -425,7 +425,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="139">
   <si>
     <t>Description</t>
   </si>
@@ -724,9 +724,6 @@
     <t>Mr Hieu To</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Change requirements or addition requirement</t>
   </si>
   <si>
@@ -818,6 +815,33 @@
   </si>
   <si>
     <t>Senior Management</t>
+  </si>
+  <si>
+    <t>Always follow schedule keep track and make sure the release time wasn't delayed</t>
+  </si>
+  <si>
+    <t>Training team members before project begin about new tool and technology</t>
+  </si>
+  <si>
+    <t>Keep the schedule update and make a good WBS to allocate resource well</t>
+  </si>
+  <si>
+    <t>Make a good Change management process to control change.</t>
+  </si>
+  <si>
+    <t>Keep track with schedule to make sure the tasks are going well and on time</t>
+  </si>
+  <si>
+    <t>Make a good schedule and always update it to reestimate the time.</t>
+  </si>
+  <si>
+    <t>Negotiation with stakeholder about the conclution of scope expansions and make a right decision</t>
+  </si>
+  <si>
+    <t>Negotiate with customer for the contribute budget for the project</t>
+  </si>
+  <si>
+    <t>Always check the schedule and collect comment from members to make sure the schedule is not unrealistic</t>
   </si>
 </sst>
 </file>
@@ -1336,6 +1360,12 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1344,12 +1374,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1863,16 +1887,16 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="I4" s="78" t="s">
+      <c r="I4" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
       <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
@@ -1890,14 +1914,14 @@
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
       <c r="Q5"/>
       <c r="R5"/>
       <c r="S5"/>
@@ -1907,14 +1931,14 @@
       <c r="W5"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" thickBot="1">
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
     </row>
     <row r="7" spans="1:23" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A7" s="74" t="s">
@@ -1941,22 +1965,22 @@
       <c r="H7" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="75" t="s">
+      <c r="I7" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="76" t="s">
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="76" t="s">
+      <c r="N7" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="76" t="s">
+      <c r="O7" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="77" t="s">
+      <c r="P7" s="79" t="s">
         <v>90</v>
       </c>
       <c r="Q7" s="74" t="s">
@@ -2002,13 +2026,13 @@
       <c r="L8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="76"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="78"/>
       <c r="T8" s="74"/>
       <c r="U8" s="74"/>
       <c r="V8" s="74"/>
@@ -2020,13 +2044,13 @@
       </c>
       <c r="B9" s="54"/>
       <c r="C9" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
@@ -2073,7 +2097,7 @@
       </c>
       <c r="B10" s="54"/>
       <c r="C10" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2126,13 +2150,13 @@
       </c>
       <c r="B11" s="54"/>
       <c r="C11" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
@@ -2179,13 +2203,13 @@
       </c>
       <c r="B12" s="54"/>
       <c r="C12" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
@@ -2232,7 +2256,7 @@
       </c>
       <c r="B13" s="54"/>
       <c r="C13" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -2285,13 +2309,13 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
@@ -2338,7 +2362,7 @@
       </c>
       <c r="B15" s="54"/>
       <c r="C15" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -2391,7 +2415,7 @@
       </c>
       <c r="B16" s="54"/>
       <c r="C16" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -2444,13 +2468,13 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
@@ -2497,13 +2521,13 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
@@ -2546,11 +2570,11 @@
     </row>
     <row r="19" spans="1:23" s="4" customFormat="1">
       <c r="A19" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -2599,11 +2623,11 @@
     </row>
     <row r="20" spans="1:23" s="4" customFormat="1" ht="25.5">
       <c r="A20" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -2652,11 +2676,11 @@
     </row>
     <row r="21" spans="1:23" s="4" customFormat="1">
       <c r="A21" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -2705,11 +2729,11 @@
     </row>
     <row r="22" spans="1:23" s="4" customFormat="1" ht="25.5">
       <c r="A22" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -2758,17 +2782,17 @@
     </row>
     <row r="23" spans="1:23" s="4" customFormat="1" ht="25.5">
       <c r="A23" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
@@ -2811,17 +2835,17 @@
     </row>
     <row r="24" spans="1:23" s="4" customFormat="1">
       <c r="A24" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2" t="s">
@@ -2864,17 +2888,17 @@
     </row>
     <row r="25" spans="1:23" s="4" customFormat="1" ht="25.5">
       <c r="A25" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
@@ -3696,15 +3720,6 @@
     <sortCondition descending="1" ref="O9"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I4:P6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
     <mergeCell ref="W7:W8"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="M7:M8"/>
@@ -3717,6 +3732,15 @@
     <mergeCell ref="U7:U8"/>
     <mergeCell ref="V7:V8"/>
     <mergeCell ref="P7:P8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I4:P6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="Q9:Q49">
@@ -4316,8 +4340,8 @@
   </sheetPr>
   <dimension ref="A3:W170"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="R20" sqref="R19:R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -4336,7 +4360,7 @@
     <col min="15" max="15" width="9.5703125" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="16.85546875" customWidth="1"/>
-    <col min="18" max="18" width="37.7109375" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="37.7109375" customWidth="1"/>
     <col min="19" max="19" width="32.28515625" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="12.42578125" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="26.5703125" bestFit="1" customWidth="1"/>
@@ -4378,16 +4402,16 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="I4" s="78" t="s">
+      <c r="I4" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
       <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
@@ -4405,14 +4429,14 @@
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
       <c r="Q5"/>
       <c r="R5"/>
       <c r="S5"/>
@@ -4422,14 +4446,14 @@
       <c r="W5"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" thickBot="1">
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
     </row>
     <row r="7" spans="1:23" s="9" customFormat="1" ht="25.5" customHeight="1">
       <c r="A7" s="74" t="s">
@@ -4456,22 +4480,22 @@
       <c r="H7" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="75" t="s">
+      <c r="I7" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="76" t="s">
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="76" t="s">
+      <c r="N7" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="76" t="s">
+      <c r="O7" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="77" t="s">
+      <c r="P7" s="79" t="s">
         <v>90</v>
       </c>
       <c r="Q7" s="74" t="s">
@@ -4517,31 +4541,31 @@
       <c r="L8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="76"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="78"/>
       <c r="T8" s="74"/>
       <c r="U8" s="74"/>
       <c r="V8" s="74"/>
       <c r="W8" s="74"/>
     </row>
-    <row r="9" spans="1:23" s="4" customFormat="1">
+    <row r="9" spans="1:23" s="4" customFormat="1" ht="25.5">
       <c r="A9" s="54" t="s">
         <v>86</v>
       </c>
       <c r="B9" s="54"/>
       <c r="C9" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
@@ -4571,7 +4595,9 @@
       <c r="Q9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R9" s="54"/>
+      <c r="R9" s="54" t="s">
+        <v>130</v>
+      </c>
       <c r="S9" s="2"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7" t="s">
@@ -4582,13 +4608,13 @@
       </c>
       <c r="W9" s="13"/>
     </row>
-    <row r="10" spans="1:23" s="4" customFormat="1" ht="15.75">
+    <row r="10" spans="1:23" s="4" customFormat="1" ht="25.5">
       <c r="A10" s="54" t="s">
         <v>87</v>
       </c>
       <c r="B10" s="54"/>
       <c r="C10" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4624,7 +4650,9 @@
       <c r="Q10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="R10" s="72"/>
+      <c r="R10" s="54" t="s">
+        <v>130</v>
+      </c>
       <c r="S10" s="2"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7" t="s">
@@ -4641,13 +4669,13 @@
       </c>
       <c r="B11" s="54"/>
       <c r="C11" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
@@ -4677,7 +4705,9 @@
       <c r="Q11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="R11" s="55"/>
+      <c r="R11" s="55" t="s">
+        <v>131</v>
+      </c>
       <c r="S11" s="2"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7" t="s">
@@ -4688,19 +4718,19 @@
       </c>
       <c r="W11" s="13"/>
     </row>
-    <row r="12" spans="1:23" s="4" customFormat="1" ht="15.75">
+    <row r="12" spans="1:23" s="4" customFormat="1" ht="25.5">
       <c r="A12" s="54" t="s">
         <v>89</v>
       </c>
       <c r="B12" s="54"/>
       <c r="C12" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
@@ -4730,24 +4760,26 @@
       <c r="Q12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="R12" s="72"/>
+      <c r="R12" s="55" t="s">
+        <v>132</v>
+      </c>
       <c r="S12" s="2"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7" t="s">
         <v>98</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="W12" s="13"/>
     </row>
-    <row r="13" spans="1:23" s="4" customFormat="1">
+    <row r="13" spans="1:23" s="4" customFormat="1" ht="25.5">
       <c r="A13" s="54" t="s">
         <v>92</v>
       </c>
       <c r="B13" s="54"/>
       <c r="C13" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -4783,14 +4815,16 @@
       <c r="Q13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R13" s="54"/>
+      <c r="R13" s="55" t="s">
+        <v>133</v>
+      </c>
       <c r="S13" s="2"/>
       <c r="T13" s="5"/>
       <c r="U13" s="7" t="s">
         <v>98</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="W13" s="13"/>
     </row>
@@ -4800,7 +4834,7 @@
       </c>
       <c r="B14" s="54"/>
       <c r="C14" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -4836,7 +4870,9 @@
       <c r="Q14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R14" s="54"/>
+      <c r="R14" s="55" t="s">
+        <v>134</v>
+      </c>
       <c r="S14" s="2"/>
       <c r="T14" s="5"/>
       <c r="U14" s="7" t="s">
@@ -4847,13 +4883,13 @@
       </c>
       <c r="W14" s="13"/>
     </row>
-    <row r="15" spans="1:23" s="4" customFormat="1">
+    <row r="15" spans="1:23" s="4" customFormat="1" ht="25.5">
       <c r="A15" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -4889,22 +4925,26 @@
       <c r="Q15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="R15" s="2"/>
+      <c r="R15" s="55" t="s">
+        <v>135</v>
+      </c>
       <c r="S15" s="2"/>
       <c r="T15" s="5"/>
       <c r="U15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="V15" s="5"/>
+      <c r="V15" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="W15" s="13"/>
     </row>
-    <row r="16" spans="1:23" s="4" customFormat="1" ht="25.5">
+    <row r="16" spans="1:23" s="4" customFormat="1" ht="38.25">
       <c r="A16" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -4940,22 +4980,26 @@
       <c r="Q16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R16" s="2"/>
+      <c r="R16" s="55" t="s">
+        <v>136</v>
+      </c>
       <c r="S16" s="2"/>
       <c r="T16" s="5"/>
       <c r="U16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="V16" s="5"/>
+      <c r="V16" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="W16" s="13"/>
     </row>
-    <row r="17" spans="1:23" s="4" customFormat="1">
+    <row r="17" spans="1:23" s="4" customFormat="1" ht="25.5">
       <c r="A17" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -4991,22 +5035,26 @@
       <c r="Q17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="R17" s="2"/>
+      <c r="R17" s="55" t="s">
+        <v>137</v>
+      </c>
       <c r="S17" s="2"/>
       <c r="T17" s="5"/>
       <c r="U17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="V17" s="5"/>
+      <c r="V17" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="W17" s="13"/>
     </row>
-    <row r="18" spans="1:23" s="4" customFormat="1" ht="25.5">
+    <row r="18" spans="1:23" s="4" customFormat="1" ht="38.25">
       <c r="A18" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -5042,13 +5090,17 @@
       <c r="Q18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="R18" s="2"/>
+      <c r="R18" s="55" t="s">
+        <v>138</v>
+      </c>
       <c r="S18" s="2"/>
       <c r="T18" s="5"/>
       <c r="U18" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="V18" s="5"/>
+      <c r="V18" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="W18" s="13"/>
     </row>
     <row r="19" spans="1:23" s="4" customFormat="1">
@@ -5829,6 +5881,11 @@
     <row r="170" s="1" customFormat="1"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
     <mergeCell ref="R7:R8"/>
     <mergeCell ref="I4:P6"/>
     <mergeCell ref="A7:A8"/>
@@ -5845,11 +5902,6 @@
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="M9:M42">
